--- a/dados.xlsx
+++ b/dados.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="19440" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Data</t>
   </si>
@@ -34,6 +34,9 @@
   </si>
   <si>
     <t>tfp</t>
+  </si>
+  <si>
+    <t>gdp_percapita</t>
   </si>
 </sst>
 </file>
@@ -378,7 +381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -508,6 +511,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -555,7 +569,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -568,6 +582,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="44">
     <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -905,10 +922,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F60"/>
+  <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -916,11 +933,12 @@
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -939,8 +957,11 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3">
         <v>1962</v>
       </c>
@@ -957,8 +978,11 @@
         <v>0.9814724326133728</v>
       </c>
       <c r="F2" s="3"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="G2" s="1">
+        <v>6505.8654964127181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3">
         <v>1963</v>
       </c>
@@ -975,8 +999,11 @@
         <v>1.0072511434555054</v>
       </c>
       <c r="F3" s="3"/>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3" s="1">
+        <v>6357.2661792158015</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="3">
         <v>1964</v>
       </c>
@@ -993,8 +1020,11 @@
         <v>1.0100350379943848</v>
       </c>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="1:6">
+      <c r="G4" s="1">
+        <v>6387.5642234624765</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3">
         <v>1965</v>
       </c>
@@ -1011,8 +1041,11 @@
         <v>1.0361275672912598</v>
       </c>
       <c r="F5" s="3"/>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5" s="1">
+        <v>6359.7219004145836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3">
         <v>1966</v>
       </c>
@@ -1029,8 +1062,11 @@
         <v>1.0297394990921021</v>
       </c>
       <c r="F6" s="3"/>
-    </row>
-    <row r="7" spans="1:6">
+      <c r="G6" s="1">
+        <v>6601.8804378419791</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="3">
         <v>1967</v>
       </c>
@@ -1047,8 +1083,11 @@
         <v>1.0471280813217163</v>
       </c>
       <c r="F7" s="3"/>
-    </row>
-    <row r="8" spans="1:6">
+      <c r="G7" s="1">
+        <v>6696.3644134082024</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3">
         <v>1968</v>
       </c>
@@ -1065,8 +1104,11 @@
         <v>1.1111042499542236</v>
       </c>
       <c r="F8" s="3"/>
-    </row>
-    <row r="9" spans="1:6">
+      <c r="G8" s="1">
+        <v>7161.3427040958359</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="3">
         <v>1969</v>
       </c>
@@ -1083,8 +1125,11 @@
         <v>1.1088528633117676</v>
       </c>
       <c r="F9" s="3"/>
-    </row>
-    <row r="10" spans="1:6">
+      <c r="G9" s="1">
+        <v>7642.1735769977649</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="3">
         <v>1970</v>
       </c>
@@ -1103,8 +1148,11 @@
       <c r="F10" s="3">
         <v>182313510616.112</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="1">
+        <v>8227.0267873386747</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="3">
         <v>1971</v>
       </c>
@@ -1123,8 +1171,11 @@
       <c r="F11" s="3">
         <v>210295832802.35001</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="G11" s="1">
+        <v>8937.5410753137621</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="3">
         <v>1972</v>
       </c>
@@ -1143,8 +1194,11 @@
       <c r="F12" s="3">
         <v>245446131259.35498</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="G12" s="1">
+        <v>9766.6217652419236</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="3">
         <v>1973</v>
       </c>
@@ -1163,8 +1217,11 @@
       <c r="F13" s="3">
         <v>296966922054.60004</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="G13" s="1">
+        <v>10869.643348870768</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="3">
         <v>1974</v>
       </c>
@@ -1183,8 +1240,11 @@
       <c r="F14" s="3">
         <v>336340641096.07404</v>
       </c>
-    </row>
-    <row r="15" spans="1:6">
+      <c r="G14" s="1">
+        <v>11481.243217062149</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="3">
         <v>1975</v>
       </c>
@@ -1203,8 +1263,11 @@
       <c r="F15" s="3">
         <v>369081197146.31</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15" s="1">
+        <v>11791.766631576482</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="3">
         <v>1976</v>
       </c>
@@ -1223,8 +1286,11 @@
       <c r="F16" s="3">
         <v>395017262810.25</v>
       </c>
-    </row>
-    <row r="17" spans="1:6">
+      <c r="G16" s="1">
+        <v>12696.367631782796</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="3">
         <v>1977</v>
       </c>
@@ -1243,8 +1309,11 @@
       <c r="F17" s="3">
         <v>390393047262.88</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17" s="1">
+        <v>13010.655567536915</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="3">
         <v>1978</v>
       </c>
@@ -1263,8 +1332,11 @@
       <c r="F18" s="3">
         <v>408927687171.56799</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18" s="1">
+        <v>13337.462606408111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="3">
         <v>1979</v>
       </c>
@@ -1283,8 +1355,11 @@
       <c r="F19" s="3">
         <v>424817324884.52002</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19" s="1">
+        <v>13905.956401119063</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="3">
         <v>1980</v>
       </c>
@@ -1303,8 +1378,11 @@
       <c r="F20" s="3">
         <v>463779457514.70197</v>
       </c>
-    </row>
-    <row r="21" spans="1:6">
+      <c r="G20" s="1">
+        <v>14831.055307304061</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="3">
         <v>1981</v>
       </c>
@@ -1323,8 +1401,11 @@
       <c r="F21" s="3">
         <v>406315529374.06403</v>
       </c>
-    </row>
-    <row r="22" spans="1:6">
+      <c r="G21" s="1">
+        <v>13870.188557687074</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="3">
         <v>1982</v>
       </c>
@@ -1343,8 +1424,11 @@
       <c r="F22" s="3">
         <v>378998499851.737</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22" s="1">
+        <v>13661.599943046913</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="3">
         <v>1983</v>
       </c>
@@ -1363,8 +1447,11 @@
       <c r="F23" s="3">
         <v>317985934766.65698</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23" s="1">
+        <v>12959.053377196617</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="3">
         <v>1984</v>
       </c>
@@ -1383,8 +1470,11 @@
       <c r="F24" s="3">
         <v>321911571209</v>
       </c>
-    </row>
-    <row r="25" spans="1:6">
+      <c r="G24" s="1">
+        <v>13356.045301759767</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="3">
         <v>1985</v>
       </c>
@@ -1403,8 +1493,11 @@
       <c r="F25" s="3">
         <v>350209668070.73798</v>
       </c>
-    </row>
-    <row r="26" spans="1:6">
+      <c r="G25" s="1">
+        <v>14096.702018946969</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="3">
         <v>1986</v>
       </c>
@@ -1423,8 +1516,11 @@
       <c r="F26" s="3">
         <v>430687990028.83801</v>
       </c>
-    </row>
-    <row r="27" spans="1:6">
+      <c r="G26" s="1">
+        <v>14841.522938716158</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="3">
         <v>1987</v>
       </c>
@@ -1443,8 +1539,11 @@
       <c r="F27" s="3">
         <v>425780401455.17896</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27" s="1">
+        <v>15061.95256268979</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="3">
         <v>1988</v>
       </c>
@@ -1463,8 +1562,11 @@
       <c r="F28" s="3">
         <v>405170267347.52802</v>
       </c>
-    </row>
-    <row r="29" spans="1:6">
+      <c r="G28" s="1">
+        <v>14766.178834907354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="3">
         <v>1989</v>
       </c>
@@ -1483,8 +1585,11 @@
       <c r="F29" s="3">
         <v>410077426824.18097</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
+      <c r="G29" s="1">
+        <v>14951.636556262371</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="3">
         <v>1990</v>
       </c>
@@ -1503,8 +1608,11 @@
       <c r="F30" s="3">
         <v>376872197083.68396</v>
       </c>
-    </row>
-    <row r="31" spans="1:6">
+      <c r="G30" s="1">
+        <v>14044.503145243065</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="3">
         <v>1991</v>
       </c>
@@ -1523,8 +1631,11 @@
       <c r="F31" s="3">
         <v>407337834500</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
+      <c r="G31" s="1">
+        <v>13942.000890255749</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="3">
         <v>1992</v>
       </c>
@@ -1543,8 +1654,11 @@
       <c r="F32" s="3">
         <v>380367720600</v>
       </c>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" s="1">
+        <v>13631.413746186407</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="3">
         <v>1993</v>
       </c>
@@ -1563,8 +1677,11 @@
       <c r="F33" s="3">
         <v>404428790800</v>
       </c>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" s="1">
+        <v>14066.569279793319</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="3">
         <v>1994</v>
       </c>
@@ -1583,8 +1700,11 @@
       <c r="F34" s="3">
         <v>462087268200</v>
       </c>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" s="1">
+        <v>14648.574819428499</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="3">
         <v>1995</v>
       </c>
@@ -1603,8 +1723,11 @@
       <c r="F35" s="3">
         <v>495773449000</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35" s="1">
+        <v>15023.508517798513</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="3">
         <v>1996</v>
       </c>
@@ -1623,8 +1746,11 @@
       <c r="F36" s="3">
         <v>499732014100</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="G36" s="1">
+        <v>15113.31353146422</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="3">
         <v>1997</v>
       </c>
@@ -1643,8 +1769,11 @@
       <c r="F37" s="3">
         <v>541800026700.00006</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37" s="1">
+        <v>15383.933042864619</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="3">
         <v>1998</v>
       </c>
@@ -1663,8 +1792,11 @@
       <c r="F38" s="3">
         <v>540912337199.99994</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" s="1">
+        <v>15201.731159445986</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="3">
         <v>1999</v>
       </c>
@@ -1683,8 +1815,11 @@
       <c r="F39" s="3">
         <v>492904731700</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" s="1">
+        <v>15048.324819688145</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="3">
         <v>2000</v>
       </c>
@@ -1703,8 +1838,11 @@
       <c r="F40" s="3">
         <v>516629180800</v>
       </c>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="G40" s="1">
+        <v>15486.505919834675</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="3">
         <v>2001</v>
       </c>
@@ -1723,8 +1861,11 @@
       <c r="F41" s="3">
         <v>523368482000</v>
       </c>
-    </row>
-    <row r="42" spans="1:6">
+      <c r="G41" s="1">
+        <v>15488.576598964668</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="3">
         <v>2002</v>
       </c>
@@ -1743,8 +1884,11 @@
       <c r="F42" s="3">
         <v>515812219700</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42" s="1">
+        <v>15753.349319000352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="3">
         <v>2003</v>
       </c>
@@ -1763,8 +1907,11 @@
       <c r="F43" s="3">
         <v>495259618000</v>
       </c>
-    </row>
-    <row r="44" spans="1:6">
+      <c r="G43" s="1">
+        <v>15733.98314005244</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="3">
         <v>2004</v>
       </c>
@@ -1783,8 +1930,11 @@
       <c r="F44" s="3">
         <v>537292120499.99994</v>
       </c>
-    </row>
-    <row r="45" spans="1:6">
+      <c r="G44" s="1">
+        <v>16441.552486888682</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="3">
         <v>2005</v>
       </c>
@@ -1803,8 +1953,11 @@
       <c r="F45" s="3">
         <v>547803171200</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45" s="1">
+        <v>16774.708360225744</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="3">
         <v>2006</v>
       </c>
@@ -1823,8 +1976,11 @@
       <c r="F46" s="3">
         <v>584291180900</v>
       </c>
-    </row>
-    <row r="47" spans="1:6">
+      <c r="G46" s="1">
+        <v>17250.230828638218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="3">
         <v>2007</v>
       </c>
@@ -1843,8 +1999,11 @@
       <c r="F47" s="3">
         <v>654128046200</v>
       </c>
-    </row>
-    <row r="48" spans="1:6">
+      <c r="G47" s="1">
+        <v>18108.378388739584</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="3">
         <v>2008</v>
       </c>
@@ -1863,8 +2022,11 @@
       <c r="F48" s="3">
         <v>734500484000</v>
       </c>
-    </row>
-    <row r="49" spans="1:6">
+      <c r="G48" s="1">
+        <v>18842.566413175642</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="3">
         <v>2009</v>
       </c>
@@ -1883,8 +2045,11 @@
       <c r="F49" s="3">
         <v>718827163100</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49" s="1">
+        <v>18638.700703801329</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="3">
         <v>2010</v>
       </c>
@@ -1903,8 +2068,11 @@
       <c r="F50" s="3">
         <v>847166000000</v>
       </c>
-    </row>
-    <row r="51" spans="1:6">
+      <c r="G50" s="1">
+        <v>19854.758511283504</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="3">
         <v>2011</v>
       </c>
@@ -1923,8 +2091,11 @@
       <c r="F51" s="3">
         <v>905055513400</v>
       </c>
-    </row>
-    <row r="52" spans="1:6">
+      <c r="G51" s="1">
+        <v>20455.643313876317</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="3">
         <v>2012</v>
       </c>
@@ -1943,8 +2114,11 @@
       <c r="F52" s="3">
         <v>912106589300</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52" s="1">
+        <v>20663.174165530334</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="3">
         <v>2013</v>
       </c>
@@ -1963,8 +2137,11 @@
       <c r="F53" s="3">
         <v>965258054200</v>
       </c>
-    </row>
-    <row r="54" spans="1:6">
+      <c r="G53" s="1">
+        <v>21098.936921271837</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="3">
         <v>2014</v>
       </c>
@@ -1983,8 +2160,11 @@
       <c r="F54" s="3">
         <v>924484978100</v>
       </c>
-    </row>
-    <row r="55" spans="1:6">
+      <c r="G54" s="1">
+        <v>21024.566724849043</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="3">
         <v>2015</v>
       </c>
@@ -2003,8 +2183,11 @@
       <c r="F55" s="3">
         <v>795549135400</v>
       </c>
-    </row>
-    <row r="56" spans="1:6">
+      <c r="G55" s="1">
+        <v>20109.687946073424</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="3">
         <v>2016</v>
       </c>
@@ -2023,8 +2206,11 @@
       <c r="F56" s="3">
         <v>699052166500</v>
       </c>
-    </row>
-    <row r="57" spans="1:6">
+      <c r="G56" s="1">
+        <v>19291.342108050969</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="3">
         <v>2017</v>
       </c>
@@ -2043,8 +2229,11 @@
       <c r="F57" s="3">
         <v>681177127165.18298</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57" s="1">
+        <v>19389.407326898592</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="3">
         <v>2018</v>
       </c>
@@ -2063,8 +2252,11 @@
       <c r="F58" s="3">
         <v>716814668116.46997</v>
       </c>
-    </row>
-    <row r="59" spans="1:6">
+      <c r="G58" s="1">
+        <v>19581.160815924261</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="3">
         <v>2019</v>
       </c>
@@ -2083,10 +2275,14 @@
       <c r="F59" s="3">
         <v>740929071603.745</v>
       </c>
-    </row>
-    <row r="60" spans="1:6">
+      <c r="G59" s="1">
+        <v>19708.801287434206</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
+      <c r="G60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Data</t>
   </si>
@@ -27,16 +27,13 @@
     <t>democrat_index</t>
   </si>
   <si>
-    <t>gdp</t>
-  </si>
-  <si>
     <t>gcf</t>
   </si>
   <si>
     <t>tfp</t>
   </si>
   <si>
-    <t>gdp_percapita</t>
+    <t>gdp_percap</t>
   </si>
 </sst>
 </file>
@@ -381,7 +378,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -511,17 +508,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -582,7 +568,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -925,21 +911,19 @@
   <dimension ref="A1:G60"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -949,16 +933,13 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -971,16 +952,14 @@
       <c r="C2" s="3">
         <v>0.41</v>
       </c>
-      <c r="D2" s="3">
-        <v>503477302961.52704</v>
-      </c>
-      <c r="E2" s="5">
+      <c r="D2" s="5">
         <v>0.9814724326133728</v>
       </c>
-      <c r="F2" s="3"/>
-      <c r="G2" s="1">
+      <c r="E2" s="3"/>
+      <c r="F2" s="1">
         <v>6505.8654964127181</v>
       </c>
+      <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="3">
@@ -992,16 +971,14 @@
       <c r="C3" s="3">
         <v>0.41099999999999998</v>
       </c>
-      <c r="D3" s="3">
-        <v>507881080939.52802</v>
-      </c>
-      <c r="E3" s="5">
+      <c r="D3" s="5">
         <v>1.0072511434555054</v>
       </c>
-      <c r="F3" s="3"/>
-      <c r="G3" s="1">
+      <c r="E3" s="3"/>
+      <c r="F3" s="1">
         <v>6357.2661792158015</v>
       </c>
+      <c r="G3" s="1"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="3">
@@ -1013,16 +990,14 @@
       <c r="C4" s="3">
         <v>0.20100000000000001</v>
       </c>
-      <c r="D4" s="3">
-        <v>525583694023.52802</v>
-      </c>
-      <c r="E4" s="5">
+      <c r="D4" s="5">
         <v>1.0100350379943848</v>
       </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="1">
+      <c r="E4" s="3"/>
+      <c r="F4" s="1">
         <v>6387.5642234624765</v>
       </c>
+      <c r="G4" s="1"/>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="3">
@@ -1034,16 +1009,14 @@
       <c r="C5" s="3">
         <v>0.14599999999999999</v>
       </c>
-      <c r="D5" s="3">
-        <v>541632328491.63599</v>
-      </c>
-      <c r="E5" s="5">
+      <c r="D5" s="5">
         <v>1.0361275672912598</v>
       </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="1">
+      <c r="E5" s="3"/>
+      <c r="F5" s="1">
         <v>6359.7219004145836</v>
       </c>
+      <c r="G5" s="1"/>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="3">
@@ -1055,16 +1028,14 @@
       <c r="C6" s="3">
         <v>0.14799999999999999</v>
       </c>
-      <c r="D6" s="3">
-        <v>564112021262.60608</v>
-      </c>
-      <c r="E6" s="5">
+      <c r="D6" s="5">
         <v>1.0297394990921021</v>
       </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="1">
+      <c r="E6" s="3"/>
+      <c r="F6" s="1">
         <v>6601.8804378419791</v>
       </c>
+      <c r="G6" s="1"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="3">
@@ -1076,16 +1047,14 @@
       <c r="C7" s="3">
         <v>0.182</v>
       </c>
-      <c r="D7" s="3">
-        <v>591839625812.33899</v>
-      </c>
-      <c r="E7" s="5">
+      <c r="D7" s="5">
         <v>1.0471280813217163</v>
       </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1">
+      <c r="E7" s="3"/>
+      <c r="F7" s="1">
         <v>6696.3644134082024</v>
       </c>
+      <c r="G7" s="1"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="3">
@@ -1097,16 +1066,14 @@
       <c r="C8" s="3">
         <v>0.17899999999999999</v>
       </c>
-      <c r="D8" s="3">
-        <v>659470811109.98694</v>
-      </c>
-      <c r="E8" s="5">
+      <c r="D8" s="5">
         <v>1.1111042499542236</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1">
+      <c r="E8" s="3"/>
+      <c r="F8" s="1">
         <v>7161.3427040958359</v>
       </c>
+      <c r="G8" s="1"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="3">
@@ -1118,16 +1085,14 @@
       <c r="C9" s="3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D9" s="3">
-        <v>723675747669.15894</v>
-      </c>
-      <c r="E9" s="5">
+      <c r="D9" s="5">
         <v>1.1088528633117676</v>
       </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1">
+      <c r="E9" s="3"/>
+      <c r="F9" s="1">
         <v>7642.1735769977649</v>
       </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="3">
@@ -1139,18 +1104,16 @@
       <c r="C10" s="3">
         <v>0.17699999999999999</v>
       </c>
-      <c r="D10" s="3">
-        <v>787141730605.36499</v>
-      </c>
-      <c r="E10" s="5">
+      <c r="D10" s="5">
         <v>1.1596546173095703</v>
       </c>
-      <c r="F10" s="3">
-        <v>182313510616.112</v>
-      </c>
-      <c r="G10" s="1">
+      <c r="E10" s="1">
+        <v>171721169808.61298</v>
+      </c>
+      <c r="F10" s="1">
         <v>8227.0267873386747</v>
       </c>
+      <c r="G10" s="1"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="3">
@@ -1162,18 +1125,16 @@
       <c r="C11" s="3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D11" s="3">
-        <v>876050072657.49097</v>
-      </c>
-      <c r="E11" s="5">
+      <c r="D11" s="5">
         <v>1.2095251083374023</v>
       </c>
-      <c r="F11" s="3">
-        <v>210295832802.35001</v>
-      </c>
-      <c r="G11" s="1">
+      <c r="E11" s="1">
+        <v>198077730458.14401</v>
+      </c>
+      <c r="F11" s="1">
         <v>8937.5410753137621</v>
       </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="3">
@@ -1185,18 +1146,16 @@
       <c r="C12" s="3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D12" s="3">
-        <v>981638655526.21997</v>
-      </c>
-      <c r="E12" s="5">
+      <c r="D12" s="5">
         <v>1.2658169269561768</v>
       </c>
-      <c r="F12" s="3">
-        <v>245446131259.35498</v>
-      </c>
-      <c r="G12" s="1">
+      <c r="E12" s="1">
+        <v>231185810872.81201</v>
+      </c>
+      <c r="F12" s="1">
         <v>9766.6217652419236</v>
       </c>
+      <c r="G12" s="1"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="3">
@@ -1208,18 +1167,16 @@
       <c r="C13" s="3">
         <v>0.17299999999999999</v>
       </c>
-      <c r="D13" s="3">
-        <v>1118858896310</v>
-      </c>
-      <c r="E13" s="5">
+      <c r="D13" s="5">
         <v>1.299862265586853</v>
       </c>
-      <c r="F13" s="3">
-        <v>296966922054.60004</v>
-      </c>
-      <c r="G13" s="1">
+      <c r="E13" s="1">
+        <v>279713264679.862</v>
+      </c>
+      <c r="F13" s="1">
         <v>10869.643348870768</v>
       </c>
+      <c r="G13" s="1"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="3">
@@ -1231,18 +1188,16 @@
       <c r="C14" s="3">
         <v>0.17399999999999999</v>
       </c>
-      <c r="D14" s="3">
-        <v>1220027463848.9502</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="D14" s="5">
         <v>1.3261234760284424</v>
       </c>
-      <c r="F14" s="3">
-        <v>336340641096.07404</v>
-      </c>
-      <c r="G14" s="1">
+      <c r="E14" s="1">
+        <v>316799386660.99396</v>
+      </c>
+      <c r="F14" s="1">
         <v>11481.243217062149</v>
       </c>
+      <c r="G14" s="1"/>
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="3">
@@ -1254,18 +1209,16 @@
       <c r="C15" s="3">
         <v>0.185</v>
       </c>
-      <c r="D15" s="3">
-        <v>1283579620455.6399</v>
-      </c>
-      <c r="E15" s="5">
+      <c r="D15" s="5">
         <v>1.316774845123291</v>
       </c>
-      <c r="F15" s="3">
-        <v>369081197146.31</v>
-      </c>
-      <c r="G15" s="1">
+      <c r="E15" s="1">
+        <v>347637729722.52203</v>
+      </c>
+      <c r="F15" s="1">
         <v>11791.766631576482</v>
       </c>
+      <c r="G15" s="1"/>
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="3">
@@ -1277,18 +1230,16 @@
       <c r="C16" s="3">
         <v>0.187</v>
       </c>
-      <c r="D16" s="3">
-        <v>1409247330047.3699</v>
-      </c>
-      <c r="E16" s="5">
+      <c r="D16" s="5">
         <v>1.3673608303070068</v>
       </c>
-      <c r="F16" s="3">
-        <v>395017262810.25</v>
-      </c>
-      <c r="G16" s="1">
+      <c r="E16" s="1">
+        <v>372066920521.34705</v>
+      </c>
+      <c r="F16" s="1">
         <v>12696.367631782796</v>
       </c>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="3">
@@ -1300,18 +1251,16 @@
       <c r="C17" s="3">
         <v>0.188</v>
       </c>
-      <c r="D17" s="3">
-        <v>1474161744337.4399</v>
-      </c>
-      <c r="E17" s="5">
+      <c r="D17" s="5">
         <v>1.317426323890686</v>
       </c>
-      <c r="F17" s="3">
-        <v>390393047262.88</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="E17" s="1">
+        <v>367711370016.297</v>
+      </c>
+      <c r="F17" s="1">
         <v>13010.655567536915</v>
       </c>
+      <c r="G17" s="1"/>
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="3">
@@ -1323,18 +1272,16 @@
       <c r="C18" s="3">
         <v>0.188</v>
       </c>
-      <c r="D18" s="3">
-        <v>1521802370408.23</v>
-      </c>
-      <c r="E18" s="5">
+      <c r="D18" s="5">
         <v>1.3115297555923462</v>
       </c>
-      <c r="F18" s="3">
-        <v>408927687171.56799</v>
-      </c>
-      <c r="G18" s="1">
+      <c r="E18" s="1">
+        <v>385169154885.58795</v>
+      </c>
+      <c r="F18" s="1">
         <v>13337.462606408111</v>
       </c>
+      <c r="G18" s="1"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="3">
@@ -1346,18 +1293,16 @@
       <c r="C19" s="3">
         <v>0.20699999999999999</v>
       </c>
-      <c r="D19" s="3">
-        <v>1624771855399.1499</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="D19" s="5">
         <v>1.3683528900146484</v>
       </c>
-      <c r="F19" s="3">
-        <v>424817324884.52002</v>
-      </c>
-      <c r="G19" s="1">
+      <c r="E19" s="1">
+        <v>400135611110.81299</v>
+      </c>
+      <c r="F19" s="1">
         <v>13905.956401119063</v>
       </c>
+      <c r="G19" s="1"/>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="3">
@@ -1369,18 +1314,16 @@
       <c r="C20" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D20" s="3">
-        <v>1772804171757.01</v>
-      </c>
-      <c r="E20" s="5">
+      <c r="D20" s="5">
         <v>1.4497785568237305</v>
       </c>
-      <c r="F20" s="3">
-        <v>463779457514.70197</v>
-      </c>
-      <c r="G20" s="1">
+      <c r="E20" s="1">
+        <v>436834059683.72998</v>
+      </c>
+      <c r="F20" s="1">
         <v>14831.055307304061</v>
       </c>
+      <c r="G20" s="1"/>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="3">
@@ -1392,18 +1335,16 @@
       <c r="C21" s="3">
         <v>0.26600000000000001</v>
       </c>
-      <c r="D21" s="3">
-        <v>1694918552029.04</v>
-      </c>
-      <c r="E21" s="5">
+      <c r="D21" s="5">
         <v>1.3178858757019043</v>
       </c>
-      <c r="F21" s="3">
-        <v>406315529374.06403</v>
-      </c>
-      <c r="G21" s="1">
+      <c r="E21" s="1">
+        <v>382708762393.57599</v>
+      </c>
+      <c r="F21" s="1">
         <v>13870.188557687074</v>
       </c>
+      <c r="G21" s="1"/>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="3">
@@ -1415,18 +1356,16 @@
       <c r="C22" s="3">
         <v>0.26800000000000002</v>
       </c>
-      <c r="D22" s="3">
-        <v>1704753241560.8501</v>
-      </c>
-      <c r="E22" s="5">
+      <c r="D22" s="5">
         <v>1.2623459100723267</v>
       </c>
-      <c r="F22" s="3">
-        <v>378998499851.737</v>
-      </c>
-      <c r="G22" s="1">
+      <c r="E22" s="1">
+        <v>356978841174.80402</v>
+      </c>
+      <c r="F22" s="1">
         <v>13661.599943046913</v>
       </c>
+      <c r="G22" s="1"/>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="3">
@@ -1438,18 +1377,16 @@
       <c r="C23" s="3">
         <v>0.28899999999999998</v>
       </c>
-      <c r="D23" s="3">
-        <v>1646624676787.1401</v>
-      </c>
-      <c r="E23" s="5">
+      <c r="D23" s="5">
         <v>1.1998300552368164</v>
       </c>
-      <c r="F23" s="3">
-        <v>317985934766.65698</v>
-      </c>
-      <c r="G23" s="1">
+      <c r="E23" s="1">
+        <v>299511081303.21002</v>
+      </c>
+      <c r="F23" s="1">
         <v>12959.053377196617</v>
       </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="3">
@@ -1461,18 +1398,16 @@
       <c r="C24" s="3">
         <v>0.29399999999999998</v>
       </c>
-      <c r="D24" s="3">
-        <v>1733387688146.4702</v>
-      </c>
-      <c r="E24" s="5">
+      <c r="D24" s="5">
         <v>1.223365306854248</v>
       </c>
-      <c r="F24" s="3">
-        <v>321911571209</v>
-      </c>
-      <c r="G24" s="1">
+      <c r="E24" s="1">
+        <v>303208639865.07599</v>
+      </c>
+      <c r="F24" s="1">
         <v>13356.045301759767</v>
       </c>
+      <c r="G24" s="1"/>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="3">
@@ -1484,18 +1419,16 @@
       <c r="C25" s="3">
         <v>0.39600000000000002</v>
       </c>
-      <c r="D25" s="3">
-        <v>1871120277415.7898</v>
-      </c>
-      <c r="E25" s="5">
+      <c r="D25" s="5">
         <v>1.2478729486465454</v>
       </c>
-      <c r="F25" s="3">
-        <v>350209668070.73798</v>
-      </c>
-      <c r="G25" s="1">
+      <c r="E25" s="1">
+        <v>329862628809.90601</v>
+      </c>
+      <c r="F25" s="1">
         <v>14096.702018946969</v>
       </c>
+      <c r="G25" s="1"/>
     </row>
     <row r="26" spans="1:7">
       <c r="A26" s="3">
@@ -1507,18 +1440,16 @@
       <c r="C26" s="3">
         <v>0.45200000000000001</v>
       </c>
-      <c r="D26" s="3">
-        <v>2020590886942.6899</v>
-      </c>
-      <c r="E26" s="5">
+      <c r="D26" s="5">
         <v>1.2906675338745117</v>
       </c>
-      <c r="F26" s="3">
-        <v>430687990028.83801</v>
-      </c>
-      <c r="G26" s="1">
+      <c r="E26" s="1">
+        <v>405665192998.245</v>
+      </c>
+      <c r="F26" s="1">
         <v>14841.522938716158</v>
       </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="3">
@@ -1530,18 +1461,16 @@
       <c r="C27" s="3">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D27" s="3">
-        <v>2093324671912.73</v>
-      </c>
-      <c r="E27" s="5">
+      <c r="D27" s="5">
         <v>1.284470796585083</v>
       </c>
-      <c r="F27" s="3">
-        <v>425780401455.17896</v>
-      </c>
-      <c r="G27" s="1">
+      <c r="E27" s="1">
+        <v>401042733324.46497</v>
+      </c>
+      <c r="F27" s="1">
         <v>15061.95256268979</v>
       </c>
+      <c r="G27" s="1"/>
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="3">
@@ -1553,18 +1482,16 @@
       <c r="C28" s="3">
         <v>0.57599999999999996</v>
       </c>
-      <c r="D28" s="3">
-        <v>2091175398567.48</v>
-      </c>
-      <c r="E28" s="5">
+      <c r="D28" s="5">
         <v>1.2378398180007935</v>
       </c>
-      <c r="F28" s="3">
-        <v>405170267347.52802</v>
-      </c>
-      <c r="G28" s="1">
+      <c r="E28" s="1">
+        <v>381630039624.92596</v>
+      </c>
+      <c r="F28" s="1">
         <v>14766.178834907354</v>
       </c>
+      <c r="G28" s="1"/>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="3">
@@ -1576,18 +1503,16 @@
       <c r="C29" s="3">
         <v>0.69799999999999995</v>
       </c>
-      <c r="D29" s="3">
-        <v>2159754635411.3701</v>
-      </c>
-      <c r="E29" s="5">
+      <c r="D29" s="5">
         <v>1.2417808771133423</v>
       </c>
-      <c r="F29" s="3">
-        <v>410077426824.18097</v>
-      </c>
-      <c r="G29" s="1">
+      <c r="E29" s="1">
+        <v>386252095132.06195</v>
+      </c>
+      <c r="F29" s="1">
         <v>14951.636556262371</v>
       </c>
+      <c r="G29" s="1"/>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="3">
@@ -1599,18 +1524,16 @@
       <c r="C30" s="3">
         <v>0.81699999999999995</v>
       </c>
-      <c r="D30" s="3">
-        <v>2092751359001.28</v>
-      </c>
-      <c r="E30" s="5">
+      <c r="D30" s="5">
         <v>1.156577467918396</v>
       </c>
-      <c r="F30" s="3">
-        <v>376872197083.68396</v>
-      </c>
-      <c r="G30" s="1">
+      <c r="E30" s="1">
+        <v>354976075732.66296</v>
+      </c>
+      <c r="F30" s="1">
         <v>14044.503145243065</v>
       </c>
+      <c r="G30" s="1"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="3">
@@ -1622,18 +1545,16 @@
       <c r="C31" s="3">
         <v>0.84</v>
       </c>
-      <c r="D31" s="3">
-        <v>2124392446099.9998</v>
-      </c>
-      <c r="E31" s="5">
+      <c r="D31" s="5">
         <v>1.1483626365661621</v>
       </c>
-      <c r="F31" s="3">
-        <v>407337834500</v>
-      </c>
-      <c r="G31" s="1">
+      <c r="E31" s="1">
+        <v>383671672000</v>
+      </c>
+      <c r="F31" s="1">
         <v>13942.000890255749</v>
       </c>
+      <c r="G31" s="1"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="3">
@@ -1645,18 +1566,16 @@
       <c r="C32" s="3">
         <v>0.84899999999999998</v>
       </c>
-      <c r="D32" s="3">
-        <v>2114473377100.0002</v>
-      </c>
-      <c r="E32" s="5">
+      <c r="D32" s="5">
         <v>1.1210429668426514</v>
       </c>
-      <c r="F32" s="3">
-        <v>380367720600</v>
-      </c>
-      <c r="G32" s="1">
+      <c r="E32" s="1">
+        <v>358268510800</v>
+      </c>
+      <c r="F32" s="1">
         <v>13631.413746186407</v>
       </c>
+      <c r="G32" s="1"/>
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="3">
@@ -1668,18 +1587,16 @@
       <c r="C33" s="3">
         <v>0.85099999999999998</v>
       </c>
-      <c r="D33" s="3">
-        <v>2213117133400</v>
-      </c>
-      <c r="E33" s="5">
+      <c r="D33" s="5">
         <v>1.1448955535888672</v>
       </c>
-      <c r="F33" s="3">
-        <v>404428790800</v>
-      </c>
-      <c r="G33" s="1">
+      <c r="E33" s="1">
+        <v>380931642500</v>
+      </c>
+      <c r="F33" s="1">
         <v>14066.569279793319</v>
       </c>
+      <c r="G33" s="1"/>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="3">
@@ -1691,18 +1608,16 @@
       <c r="C34" s="3">
         <v>0.85899999999999999</v>
       </c>
-      <c r="D34" s="3">
-        <v>2331177011100</v>
-      </c>
-      <c r="E34" s="5">
+      <c r="D34" s="5">
         <v>1.1770355701446533</v>
       </c>
-      <c r="F34" s="3">
-        <v>462087268200</v>
-      </c>
-      <c r="G34" s="1">
+      <c r="E34" s="1">
+        <v>435240185800</v>
+      </c>
+      <c r="F34" s="1">
         <v>14648.574819428499</v>
       </c>
+      <c r="G34" s="1"/>
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="3">
@@ -1714,18 +1629,16 @@
       <c r="C35" s="3">
         <v>0.86299999999999999</v>
       </c>
-      <c r="D35" s="3">
-        <v>2434138837100</v>
-      </c>
-      <c r="E35" s="5">
+      <c r="D35" s="5">
         <v>1.1866447925567627</v>
       </c>
-      <c r="F35" s="3">
-        <v>495773449000</v>
-      </c>
-      <c r="G35" s="1">
+      <c r="E35" s="1">
+        <v>466969213300</v>
+      </c>
+      <c r="F35" s="1">
         <v>15023.508517798513</v>
       </c>
+      <c r="G35" s="1"/>
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="3">
@@ -1737,18 +1650,16 @@
       <c r="C36" s="3">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D36" s="3">
-        <v>2487873316700</v>
-      </c>
-      <c r="E36" s="5">
+      <c r="D36" s="5">
         <v>1.1927493810653687</v>
       </c>
-      <c r="F36" s="3">
-        <v>499732014100</v>
-      </c>
-      <c r="G36" s="1">
+      <c r="E36" s="1">
+        <v>470697787400</v>
+      </c>
+      <c r="F36" s="1">
         <v>15113.31353146422</v>
       </c>
+      <c r="G36" s="1"/>
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="3">
@@ -1760,18 +1671,16 @@
       <c r="C37" s="3">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D37" s="3">
-        <v>2572332784100</v>
-      </c>
-      <c r="E37" s="5">
+      <c r="D37" s="5">
         <v>1.1888258457183838</v>
       </c>
-      <c r="F37" s="3">
-        <v>541800026700.00006</v>
-      </c>
-      <c r="G37" s="1">
+      <c r="E37" s="1">
+        <v>510321665500</v>
+      </c>
+      <c r="F37" s="1">
         <v>15383.933042864619</v>
       </c>
+      <c r="G37" s="1"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="3">
@@ -1783,18 +1692,16 @@
       <c r="C38" s="3">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D38" s="3">
-        <v>2581029787300</v>
-      </c>
-      <c r="E38" s="5">
+      <c r="D38" s="5">
         <v>1.1621242761611938</v>
       </c>
-      <c r="F38" s="3">
-        <v>540912337199.99994</v>
-      </c>
-      <c r="G38" s="1">
+      <c r="E38" s="1">
+        <v>509485550500</v>
+      </c>
+      <c r="F38" s="1">
         <v>15201.731159445986</v>
       </c>
+      <c r="G38" s="1"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="3">
@@ -1806,18 +1713,16 @@
       <c r="C39" s="3">
         <v>0.86599999999999999</v>
       </c>
-      <c r="D39" s="3">
-        <v>2593107395300</v>
-      </c>
-      <c r="E39" s="5">
+      <c r="D39" s="5">
         <v>1.1182783842086792</v>
       </c>
-      <c r="F39" s="3">
-        <v>492904731700</v>
-      </c>
-      <c r="G39" s="1">
+      <c r="E39" s="1">
+        <v>464267167300</v>
+      </c>
+      <c r="F39" s="1">
         <v>15048.324819688145</v>
       </c>
+      <c r="G39" s="1"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="3">
@@ -1829,18 +1734,16 @@
       <c r="C40" s="3">
         <v>0.87</v>
       </c>
-      <c r="D40" s="3">
-        <v>2706891636800</v>
-      </c>
-      <c r="E40" s="5">
+      <c r="D40" s="5">
         <v>1.1136641502380371</v>
       </c>
-      <c r="F40" s="3">
-        <v>516629180800</v>
-      </c>
-      <c r="G40" s="1">
+      <c r="E40" s="1">
+        <v>486613235600</v>
+      </c>
+      <c r="F40" s="1">
         <v>15486.505919834675</v>
       </c>
+      <c r="G40" s="1"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="3">
@@ -1852,18 +1755,16 @@
       <c r="C41" s="3">
         <v>0.87</v>
       </c>
-      <c r="D41" s="3">
-        <v>2744514626300</v>
-      </c>
-      <c r="E41" s="5">
+      <c r="D41" s="5">
         <v>1.1050382852554321</v>
       </c>
-      <c r="F41" s="3">
-        <v>523368482000</v>
-      </c>
-      <c r="G41" s="1">
+      <c r="E41" s="1">
+        <v>492960986100</v>
+      </c>
+      <c r="F41" s="1">
         <v>15488.576598964668</v>
       </c>
+      <c r="G41" s="1"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="3">
@@ -1875,18 +1776,16 @@
       <c r="C42" s="3">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D42" s="3">
-        <v>2828317333600</v>
-      </c>
-      <c r="E42" s="5">
+      <c r="D42" s="5">
         <v>1.094123363494873</v>
       </c>
-      <c r="F42" s="3">
-        <v>515812219700</v>
-      </c>
-      <c r="G42" s="1">
+      <c r="E42" s="1">
+        <v>485843739600</v>
+      </c>
+      <c r="F42" s="1">
         <v>15753.349319000352</v>
       </c>
+      <c r="G42" s="1"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="3">
@@ -1898,18 +1797,16 @@
       <c r="C43" s="3">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D43" s="3">
-        <v>2860583597900</v>
-      </c>
-      <c r="E43" s="5">
+      <c r="D43" s="5">
         <v>1.0826361179351807</v>
       </c>
-      <c r="F43" s="3">
-        <v>495259618000</v>
-      </c>
-      <c r="G43" s="1">
+      <c r="E43" s="1">
+        <v>466485235700</v>
+      </c>
+      <c r="F43" s="1">
         <v>15733.98314005244</v>
       </c>
+      <c r="G43" s="1"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="3">
@@ -1921,18 +1818,16 @@
       <c r="C44" s="3">
         <v>0.86899999999999999</v>
       </c>
-      <c r="D44" s="3">
-        <v>3025352201600</v>
-      </c>
-      <c r="E44" s="5">
+      <c r="D44" s="5">
         <v>1.0942395925521851</v>
       </c>
-      <c r="F44" s="3">
-        <v>537292120499.99994</v>
-      </c>
-      <c r="G44" s="1">
+      <c r="E44" s="1">
+        <v>506075666900</v>
+      </c>
+      <c r="F44" s="1">
         <v>16441.552486888682</v>
       </c>
+      <c r="G44" s="1"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="3">
@@ -1944,18 +1839,16 @@
       <c r="C45" s="3">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D45" s="3">
-        <v>3122227953800</v>
-      </c>
-      <c r="E45" s="5">
+      <c r="D45" s="5">
         <v>1.0970253944396973</v>
       </c>
-      <c r="F45" s="3">
-        <v>547803171200</v>
-      </c>
-      <c r="G45" s="1">
+      <c r="E45" s="1">
+        <v>515976029800</v>
+      </c>
+      <c r="F45" s="1">
         <v>16774.708360225744</v>
       </c>
+      <c r="G45" s="1"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="3">
@@ -1967,18 +1860,16 @@
       <c r="C46" s="3">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D46" s="3">
-        <v>3245930273200</v>
-      </c>
-      <c r="E46" s="5">
+      <c r="D46" s="5">
         <v>1.0996354818344116</v>
       </c>
-      <c r="F46" s="3">
-        <v>584291180900</v>
-      </c>
-      <c r="G46" s="1">
+      <c r="E46" s="1">
+        <v>550344101000</v>
+      </c>
+      <c r="F46" s="1">
         <v>17250.230828638218</v>
       </c>
+      <c r="G46" s="1"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="3">
@@ -1990,18 +1881,16 @@
       <c r="C47" s="3">
         <v>0.875</v>
       </c>
-      <c r="D47" s="3">
-        <v>3442954040800</v>
-      </c>
-      <c r="E47" s="5">
+      <c r="D47" s="5">
         <v>1.1364504098892212</v>
       </c>
-      <c r="F47" s="3">
-        <v>654128046200</v>
-      </c>
-      <c r="G47" s="1">
+      <c r="E47" s="1">
+        <v>616123472800</v>
+      </c>
+      <c r="F47" s="1">
         <v>18108.378388739584</v>
       </c>
+      <c r="G47" s="1"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="3">
@@ -2013,18 +1902,16 @@
       <c r="C48" s="3">
         <v>0.875</v>
       </c>
-      <c r="D48" s="3">
-        <v>3618344848800</v>
-      </c>
-      <c r="E48" s="5">
+      <c r="D48" s="5">
         <v>1.151638388633728</v>
       </c>
-      <c r="F48" s="3">
-        <v>734500484000</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="E48" s="1">
+        <v>691826304700</v>
+      </c>
+      <c r="F48" s="1">
         <v>18842.566413175642</v>
       </c>
+      <c r="G48" s="1"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="3">
@@ -2036,18 +1923,16 @@
       <c r="C49" s="3">
         <v>0.875</v>
       </c>
-      <c r="D49" s="3">
-        <v>3613792536800</v>
-      </c>
-      <c r="E49" s="5">
+      <c r="D49" s="5">
         <v>1.1239486932754517</v>
       </c>
-      <c r="F49" s="3">
-        <v>718827163100</v>
-      </c>
-      <c r="G49" s="1">
+      <c r="E49" s="1">
+        <v>677063597300</v>
+      </c>
+      <c r="F49" s="1">
         <v>18638.700703801329</v>
       </c>
+      <c r="G49" s="1"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="3">
@@ -2059,18 +1944,16 @@
       <c r="C50" s="3">
         <v>0.88100000000000001</v>
       </c>
-      <c r="D50" s="3">
-        <v>3885847000000</v>
-      </c>
-      <c r="E50" s="5">
+      <c r="D50" s="5">
         <v>1.1512904167175293</v>
       </c>
-      <c r="F50" s="3">
-        <v>847166000000</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="E50" s="1">
+        <v>797945999999.9989</v>
+      </c>
+      <c r="F50" s="1">
         <v>19854.758511283504</v>
       </c>
+      <c r="G50" s="1"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="3">
@@ -2082,18 +1965,16 @@
       <c r="C51" s="3">
         <v>0.88700000000000001</v>
       </c>
-      <c r="D51" s="3">
-        <v>4040287090400</v>
-      </c>
-      <c r="E51" s="5">
+      <c r="D51" s="5">
         <v>1.1331460475921631</v>
       </c>
-      <c r="F51" s="3">
-        <v>905055513400</v>
-      </c>
-      <c r="G51" s="1">
+      <c r="E51" s="1">
+        <v>852477999999.9989</v>
+      </c>
+      <c r="F51" s="1">
         <v>20455.643313876317</v>
       </c>
+      <c r="G51" s="1"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="3">
@@ -2105,18 +1986,16 @@
       <c r="C52" s="3">
         <v>0.878</v>
       </c>
-      <c r="D52" s="3">
-        <v>4117907078700</v>
-      </c>
-      <c r="E52" s="5">
+      <c r="D52" s="5">
         <v>1.1176631450653076</v>
       </c>
-      <c r="F52" s="3">
-        <v>912106589300</v>
-      </c>
-      <c r="G52" s="1">
+      <c r="E52" s="1">
+        <v>859116902563.06604</v>
+      </c>
+      <c r="F52" s="1">
         <v>20663.174165530334</v>
       </c>
+      <c r="G52" s="1"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="3">
@@ -2128,18 +2007,16 @@
       <c r="C53" s="3">
         <v>0.88400000000000001</v>
       </c>
-      <c r="D53" s="3">
-        <v>4241643857400</v>
-      </c>
-      <c r="E53" s="5">
+      <c r="D53" s="5">
         <v>1.1111617088317871</v>
       </c>
-      <c r="F53" s="3">
-        <v>965258054200</v>
-      </c>
-      <c r="G53" s="1">
+      <c r="E53" s="1">
+        <v>909179372080.21204</v>
+      </c>
+      <c r="F53" s="1">
         <v>21098.936921271837</v>
       </c>
+      <c r="G53" s="1"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="3">
@@ -2151,18 +2028,16 @@
       <c r="C54" s="3">
         <v>0.88300000000000001</v>
       </c>
-      <c r="D54" s="3">
-        <v>4263019865100</v>
-      </c>
-      <c r="E54" s="5">
+      <c r="D54" s="5">
         <v>1.0819246768951416</v>
       </c>
-      <c r="F54" s="3">
-        <v>924484978100</v>
-      </c>
-      <c r="G54" s="1">
+      <c r="E54" s="1">
+        <v>870775011226.67102</v>
+      </c>
+      <c r="F54" s="1">
         <v>21024.566724849043</v>
       </c>
+      <c r="G54" s="1"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="3">
@@ -2174,18 +2049,16 @@
       <c r="C55" s="3">
         <v>0.876</v>
       </c>
-      <c r="D55" s="3">
-        <v>4111863267300</v>
-      </c>
-      <c r="E55" s="5">
+      <c r="D55" s="5">
         <v>1.0325993299484253</v>
       </c>
-      <c r="F55" s="3">
-        <v>795549135400</v>
-      </c>
-      <c r="G55" s="1">
+      <c r="E55" s="1">
+        <v>749332372500.34399</v>
+      </c>
+      <c r="F55" s="1">
         <v>20109.687946073424</v>
       </c>
+      <c r="G55" s="1"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="3">
@@ -2197,18 +2070,16 @@
       <c r="C56" s="3">
         <v>0.80600000000000005</v>
       </c>
-      <c r="D56" s="3">
-        <v>3977162043300</v>
-      </c>
-      <c r="E56" s="5">
+      <c r="D56" s="5">
         <v>0.99925637245178223</v>
       </c>
-      <c r="F56" s="3">
-        <v>699052166500</v>
-      </c>
-      <c r="G56" s="1">
+      <c r="E56" s="1">
+        <v>658439656295.55298</v>
+      </c>
+      <c r="F56" s="1">
         <v>19291.342108050969</v>
       </c>
+      <c r="G56" s="1"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="3">
@@ -2220,18 +2091,16 @@
       <c r="C57" s="3">
         <v>0.77200000000000002</v>
       </c>
-      <c r="D57" s="3">
-        <v>4029774689232.3501</v>
-      </c>
-      <c r="E57" s="5">
+      <c r="D57" s="5">
         <v>1</v>
       </c>
-      <c r="F57" s="3">
-        <v>681177127165.18298</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="E57" s="1">
+        <v>641601013157.927</v>
+      </c>
+      <c r="F57" s="1">
         <v>19389.407326898592</v>
       </c>
+      <c r="G57" s="1"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="3">
@@ -2243,18 +2112,16 @@
       <c r="C58" s="3">
         <v>0.76200000000000001</v>
       </c>
-      <c r="D58" s="3">
-        <v>4101652440922.2798</v>
-      </c>
-      <c r="E58" s="5">
+      <c r="D58" s="5">
         <v>0.98797720670700073</v>
       </c>
-      <c r="F58" s="3">
-        <v>716814668116.46997</v>
-      </c>
-      <c r="G58" s="1">
+      <c r="E58" s="1">
+        <v>675168027476.15491</v>
+      </c>
+      <c r="F58" s="1">
         <v>19581.160815924261</v>
       </c>
+      <c r="G58" s="1"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="3">
@@ -2266,26 +2133,26 @@
       <c r="C59" s="3">
         <v>0.69299999999999995</v>
       </c>
-      <c r="D59" s="3">
-        <v>4159533031779.5596</v>
-      </c>
-      <c r="E59" s="5">
+      <c r="D59" s="5">
         <v>0.9705120325088501</v>
       </c>
-      <c r="F59" s="3">
-        <v>740929071603.745</v>
-      </c>
-      <c r="G59" s="1">
+      <c r="E59" s="1">
+        <v>697881393929.78601</v>
+      </c>
+      <c r="F59" s="1">
         <v>19708.801287434206</v>
       </c>
+      <c r="G59" s="1"/>
     </row>
     <row r="60" spans="1:7">
       <c r="C60" s="1"/>
-      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="F60" s="1"/>
       <c r="G60" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
